--- a/trendAnalysis.xlsx
+++ b/trendAnalysis.xlsx
@@ -35,7 +35,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="[$-14009]dddd\,\ d\ mmmm\,\ yyyy;@"/>
   </numFmts>
@@ -212,7 +213,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -249,6 +250,7 @@
     <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -770,11 +772,11 @@
           </c:extLst>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="56835456"/>
-        <c:axId val="56845440"/>
+        <c:axId val="79177216"/>
+        <c:axId val="79178752"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="56835456"/>
+        <c:axId val="79177216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -814,14 +816,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56845440"/>
+        <c:crossAx val="79178752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="56845440"/>
+        <c:axId val="79178752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -870,7 +872,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56835456"/>
+        <c:crossAx val="79177216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -943,7 +945,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1247,10 +1249,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G16"/>
+  <dimension ref="B1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1262,11 +1264,12 @@
     <col min="5" max="5" width="21.85546875" style="3" customWidth="1"/>
     <col min="6" max="6" width="19.140625" style="3" customWidth="1"/>
     <col min="7" max="7" width="25.28515625" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="2"/>
+    <col min="8" max="8" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="20.100000000000001" customHeight="1"/>
-    <row r="2" spans="2:7" ht="34.5" customHeight="1" thickBot="1">
+    <row r="1" spans="2:8" ht="20.100000000000001" customHeight="1"/>
+    <row r="2" spans="2:8" ht="34.5" customHeight="1" thickBot="1">
       <c r="B2" s="4"/>
       <c r="C2" s="4" t="s">
         <v>3</v>
@@ -1281,7 +1284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="33.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="3" spans="2:8" ht="33.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
@@ -1301,7 +1304,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="20.100000000000001" customHeight="1" thickTop="1">
+    <row r="4" spans="2:8" ht="20.100000000000001" customHeight="1" thickTop="1">
       <c r="B4" s="8">
         <v>45221</v>
       </c>
@@ -1318,7 +1321,7 @@
         <v>40400</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B5" s="10">
         <v>45227</v>
       </c>
@@ -1335,7 +1338,7 @@
         <v>37100</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="12">
         <v>45235</v>
       </c>
@@ -1352,7 +1355,7 @@
         <v>37100</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="10">
         <v>45242</v>
       </c>
@@ -1370,7 +1373,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="2:7" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="12">
         <v>45249</v>
       </c>
@@ -1385,7 +1388,7 @@
         <v>46100</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B9" s="10">
         <v>45256</v>
       </c>
@@ -1402,7 +1405,7 @@
         <v>57200</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B10" s="10">
         <v>45270</v>
       </c>
@@ -1420,7 +1423,7 @@
         <v>49400</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="12">
         <v>45277</v>
       </c>
@@ -1437,7 +1440,7 @@
         <v>177050</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="10">
         <v>45284</v>
       </c>
@@ -1454,7 +1457,7 @@
         <v>216750</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="12">
         <v>45291</v>
       </c>
@@ -1471,7 +1474,7 @@
         <v>205750</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="10">
         <v>45298</v>
       </c>
@@ -1489,7 +1492,7 @@
         <v>211350</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="12">
         <v>45301</v>
       </c>
@@ -1506,7 +1509,7 @@
         <v>250950</v>
       </c>
     </row>
-    <row r="16" spans="2:7" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="10">
         <v>45305</v>
       </c>
@@ -1522,6 +1525,61 @@
       <c r="F16" s="11">
         <v>236100</v>
       </c>
+      <c r="H16" s="14"/>
+    </row>
+    <row r="17" spans="2:7" ht="20.100000000000001" customHeight="1">
+      <c r="B17" s="10">
+        <v>45308</v>
+      </c>
+      <c r="C17" s="11">
+        <v>159880</v>
+      </c>
+      <c r="D17" s="11">
+        <v>242050</v>
+      </c>
+      <c r="E17" s="11">
+        <v>12550</v>
+      </c>
+      <c r="F17" s="11">
+        <v>229250</v>
+      </c>
+      <c r="G17" s="14"/>
+    </row>
+    <row r="18" spans="2:7" ht="20.100000000000001" customHeight="1">
+      <c r="B18" s="10">
+        <v>45316</v>
+      </c>
+      <c r="C18" s="11">
+        <v>159880</v>
+      </c>
+      <c r="D18" s="11">
+        <v>242050</v>
+      </c>
+      <c r="E18" s="11">
+        <v>17550</v>
+      </c>
+      <c r="F18" s="11">
+        <v>224900</v>
+      </c>
+      <c r="G18" s="14"/>
+    </row>
+    <row r="19" spans="2:7" ht="20.100000000000001" customHeight="1">
+      <c r="B19" s="10">
+        <v>45316</v>
+      </c>
+      <c r="C19" s="11">
+        <v>159880</v>
+      </c>
+      <c r="D19" s="11">
+        <v>249250</v>
+      </c>
+      <c r="E19" s="11">
+        <v>7550</v>
+      </c>
+      <c r="F19" s="11">
+        <v>241700</v>
+      </c>
+      <c r="G19" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trendAnalysis.xlsx
+++ b/trendAnalysis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Outstanding Amount</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>On Current Date</t>
+  </si>
+  <si>
+    <t>error -150</t>
   </si>
 </sst>
 </file>
@@ -772,11 +775,11 @@
           </c:extLst>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="79177216"/>
-        <c:axId val="79178752"/>
+        <c:axId val="54960128"/>
+        <c:axId val="54961664"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="79177216"/>
+        <c:axId val="54960128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -816,14 +819,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79178752"/>
+        <c:crossAx val="54961664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="79178752"/>
+        <c:axId val="54961664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -872,7 +875,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79177216"/>
+        <c:crossAx val="54960128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -945,7 +948,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1249,10 +1252,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H19"/>
+  <dimension ref="B1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1581,6 +1584,46 @@
       </c>
       <c r="G19" s="14"/>
     </row>
+    <row r="20" spans="2:7" ht="20.100000000000001" customHeight="1">
+      <c r="B20" s="10">
+        <v>45320</v>
+      </c>
+      <c r="C20" s="11">
+        <v>159880</v>
+      </c>
+      <c r="D20" s="11">
+        <v>249250</v>
+      </c>
+      <c r="E20" s="11">
+        <v>16800</v>
+      </c>
+      <c r="F20" s="11">
+        <v>232450</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="10">
+        <v>45321</v>
+      </c>
+      <c r="C21" s="11">
+        <v>159880</v>
+      </c>
+      <c r="D21" s="11">
+        <v>255900</v>
+      </c>
+      <c r="E21" s="11">
+        <v>6600</v>
+      </c>
+      <c r="F21" s="11">
+        <v>249250</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="F22" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/trendAnalysis.xlsx
+++ b/trendAnalysis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Outstanding Amount</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>error -150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
@@ -775,11 +778,11 @@
           </c:extLst>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="54960128"/>
-        <c:axId val="54961664"/>
+        <c:axId val="56509184"/>
+        <c:axId val="56517376"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="54960128"/>
+        <c:axId val="56509184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -819,14 +822,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="54961664"/>
+        <c:crossAx val="56517376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="54961664"/>
+        <c:axId val="56517376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -875,7 +878,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="54960128"/>
+        <c:crossAx val="56509184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -948,7 +951,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1244,7 +1247,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1252,10 +1255,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H22"/>
+  <dimension ref="B1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1615,14 +1618,51 @@
         <v>255900</v>
       </c>
       <c r="E21" s="11">
-        <v>6600</v>
+        <v>6650</v>
       </c>
       <c r="F21" s="11">
         <v>249250</v>
       </c>
     </row>
     <row r="22" spans="2:7">
-      <c r="F22" s="1"/>
+      <c r="B22" s="10">
+        <v>45325</v>
+      </c>
+      <c r="C22" s="11">
+        <f>159880+1500</f>
+        <v>161380</v>
+      </c>
+      <c r="D22" s="11">
+        <v>257400</v>
+      </c>
+      <c r="E22" s="11">
+        <v>18650</v>
+      </c>
+      <c r="F22" s="11">
+        <v>240150</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="10">
+        <v>45325</v>
+      </c>
+      <c r="C23" s="11">
+        <v>161380</v>
+      </c>
+      <c r="D23" s="11">
+        <v>252850</v>
+      </c>
+      <c r="E23" s="11">
+        <v>1000</v>
+      </c>
+      <c r="F23" s="11">
+        <v>251850</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="E25" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trendAnalysis.xlsx
+++ b/trendAnalysis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Outstanding Amount</t>
   </si>
@@ -32,9 +32,6 @@
   </si>
   <si>
     <t>error -150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
@@ -778,11 +775,11 @@
           </c:extLst>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="56509184"/>
-        <c:axId val="56517376"/>
+        <c:axId val="54973952"/>
+        <c:axId val="54975488"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="56509184"/>
+        <c:axId val="54973952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -822,14 +819,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56517376"/>
+        <c:crossAx val="54975488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="56517376"/>
+        <c:axId val="54975488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -878,7 +875,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56509184"/>
+        <c:crossAx val="54973952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -951,7 +948,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1257,8 +1254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1659,9 +1656,38 @@
         <v>251850</v>
       </c>
     </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="10">
+        <v>45331</v>
+      </c>
+      <c r="C24" s="11">
+        <v>161380</v>
+      </c>
+      <c r="D24" s="11">
+        <v>251450</v>
+      </c>
+      <c r="E24" s="11">
+        <v>11700</v>
+      </c>
+      <c r="F24" s="11">
+        <v>239750</v>
+      </c>
+    </row>
     <row r="25" spans="2:7">
-      <c r="E25" s="3" t="s">
-        <v>6</v>
+      <c r="B25" s="10">
+        <v>45331</v>
+      </c>
+      <c r="C25" s="11">
+        <v>161380</v>
+      </c>
+      <c r="D25" s="11">
+        <v>253500</v>
+      </c>
+      <c r="E25" s="11">
+        <v>-8150</v>
+      </c>
+      <c r="F25" s="11">
+        <v>261650</v>
       </c>
     </row>
   </sheetData>

--- a/trendAnalysis.xlsx
+++ b/trendAnalysis.xlsx
@@ -775,11 +775,11 @@
           </c:extLst>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="54973952"/>
-        <c:axId val="54975488"/>
+        <c:axId val="69314048"/>
+        <c:axId val="69315584"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="54973952"/>
+        <c:axId val="69314048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -819,14 +819,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="54975488"/>
+        <c:crossAx val="69315584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="54975488"/>
+        <c:axId val="69315584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -875,7 +875,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="54973952"/>
+        <c:crossAx val="69314048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -948,7 +948,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1244,7 +1244,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1252,10 +1252,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H25"/>
+  <dimension ref="B1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1690,6 +1690,23 @@
         <v>261650</v>
       </c>
     </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="10">
+        <v>45333</v>
+      </c>
+      <c r="C26" s="11">
+        <v>161380</v>
+      </c>
+      <c r="D26" s="11">
+        <v>257450</v>
+      </c>
+      <c r="E26" s="11">
+        <v>-22600</v>
+      </c>
+      <c r="F26" s="11">
+        <v>280050</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/trendAnalysis.xlsx
+++ b/trendAnalysis.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6000" windowWidth="20640" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="6600" windowWidth="20640" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="2023TrendAnalysis" sheetId="15" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" iterateDelta="1E-4"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Outstanding Amount</t>
   </si>
@@ -33,17 +33,20 @@
   <si>
     <t>error -150</t>
   </si>
+  <si>
+    <t>payable to ranjita 15450</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="[$-14009]dddd\,\ d\ mmmm\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,46 +217,49 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="5" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="5" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="2" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -283,8 +289,18 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -313,6 +329,7 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -321,10 +338,12 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -394,7 +413,7 @@
             <c:numRef>
               <c:f>'2023TrendAnalysis'!$C$3:$C$13</c:f>
               <c:numCache>
-                <c:formatCode>_ "₹"\ * #,##0.00_ ;_ "₹"\ * \-#,##0.00_ ;_ "₹"\ * "-"??_ ;_ @_ </c:formatCode>
+                <c:formatCode>_("₹"* #,##0.00_);_("₹"* \(#,##0.00\);_("₹"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>35000</c:v>
@@ -432,7 +451,8 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-588A-4FD6-90A1-C2BC5C3DF530}"/>
             </c:ext>
@@ -507,7 +527,7 @@
             <c:numRef>
               <c:f>'2023TrendAnalysis'!$D$3:$D$13</c:f>
               <c:numCache>
-                <c:formatCode>_ "₹"\ * #,##0.00_ ;_ "₹"\ * \-#,##0.00_ ;_ "₹"\ * "-"??_ ;_ @_ </c:formatCode>
+                <c:formatCode>_("₹"* #,##0.00_);_("₹"* \(#,##0.00\);_("₹"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -545,7 +565,8 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-588A-4FD6-90A1-C2BC5C3DF530}"/>
             </c:ext>
@@ -620,7 +641,7 @@
             <c:numRef>
               <c:f>'2023TrendAnalysis'!$E$3:$E$13</c:f>
               <c:numCache>
-                <c:formatCode>_ "₹"\ * #,##0.00_ ;_ "₹"\ * \-#,##0.00_ ;_ "₹"\ * "-"??_ ;_ @_ </c:formatCode>
+                <c:formatCode>_("₹"* #,##0.00_);_("₹"* \(#,##0.00\);_("₹"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -655,7 +676,8 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-588A-4FD6-90A1-C2BC5C3DF530}"/>
             </c:ext>
@@ -730,7 +752,7 @@
             <c:numRef>
               <c:f>'2023TrendAnalysis'!$F$3:$F$13</c:f>
               <c:numCache>
-                <c:formatCode>_ "₹"\ * #,##0.00_ ;_ "₹"\ * \-#,##0.00_ ;_ "₹"\ * "-"??_ ;_ @_ </c:formatCode>
+                <c:formatCode>_("₹"* #,##0.00_);_("₹"* \(#,##0.00\);_("₹"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -768,23 +790,35 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:smooth val="0"/>
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-588A-4FD6-90A1-C2BC5C3DF530}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="69314048"/>
-        <c:axId val="69315584"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="68160512"/>
+        <c:axId val="54264576"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="69314048"/>
+        <c:axId val="68160512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="[$-14009]dddd\,\ d\ mmmm\,\ yyyy;@" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -819,17 +853,18 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69315584"/>
+        <c:crossAx val="54264576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="69315584"/>
+        <c:axId val="54264576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -845,8 +880,9 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ " sourceLinked="1"/>
+        <c:numFmt formatCode="_(&quot;₹&quot;* #,##0.00_);_(&quot;₹&quot;* \(#,##0.00\);_(&quot;₹&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -875,7 +911,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69314048"/>
+        <c:crossAx val="68160512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -890,6 +926,7 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -920,6 +957,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -948,7 +986,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1244,21 +1282,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.85546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="2" customWidth="1"/>
@@ -1267,12 +1305,12 @@
     <col min="5" max="5" width="21.85546875" style="3" customWidth="1"/>
     <col min="6" max="6" width="19.140625" style="3" customWidth="1"/>
     <col min="7" max="7" width="25.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="20.100000000000001" customHeight="1"/>
-    <row r="2" spans="2:8" ht="34.5" customHeight="1" thickBot="1">
+    <row r="1" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4"/>
       <c r="C2" s="4" t="s">
         <v>3</v>
@@ -1287,7 +1325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="33.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="3" spans="2:8" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
@@ -1307,7 +1345,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="20.100000000000001" customHeight="1" thickTop="1">
+    <row r="4" spans="2:8" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8">
         <v>45221</v>
       </c>
@@ -1324,7 +1362,7 @@
         <v>40400</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="10">
         <v>45227</v>
       </c>
@@ -1341,7 +1379,7 @@
         <v>37100</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="12">
         <v>45235</v>
       </c>
@@ -1358,7 +1396,7 @@
         <v>37100</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="10">
         <v>45242</v>
       </c>
@@ -1376,7 +1414,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="2:8" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="12">
         <v>45249</v>
       </c>
@@ -1391,7 +1429,7 @@
         <v>46100</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="10">
         <v>45256</v>
       </c>
@@ -1408,7 +1446,7 @@
         <v>57200</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="10">
         <v>45270</v>
       </c>
@@ -1426,7 +1464,7 @@
         <v>49400</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="12">
         <v>45277</v>
       </c>
@@ -1443,7 +1481,7 @@
         <v>177050</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="10">
         <v>45284</v>
       </c>
@@ -1460,7 +1498,7 @@
         <v>216750</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="12">
         <v>45291</v>
       </c>
@@ -1477,7 +1515,7 @@
         <v>205750</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="10">
         <v>45298</v>
       </c>
@@ -1495,7 +1533,7 @@
         <v>211350</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="12">
         <v>45301</v>
       </c>
@@ -1512,7 +1550,7 @@
         <v>250950</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="10">
         <v>45305</v>
       </c>
@@ -1530,7 +1568,7 @@
       </c>
       <c r="H16" s="14"/>
     </row>
-    <row r="17" spans="2:7" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="10">
         <v>45308</v>
       </c>
@@ -1548,7 +1586,7 @@
       </c>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="2:7" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="10">
         <v>45316</v>
       </c>
@@ -1566,7 +1604,7 @@
       </c>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" spans="2:7" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="10">
         <v>45316</v>
       </c>
@@ -1584,7 +1622,7 @@
       </c>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="2:7" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="10">
         <v>45320</v>
       </c>
@@ -1603,8 +1641,9 @@
       <c r="G20" s="14" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="2:7">
+      <c r="H20" s="14"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="10">
         <v>45321</v>
       </c>
@@ -1621,7 +1660,7 @@
         <v>249250</v>
       </c>
     </row>
-    <row r="22" spans="2:7">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="10">
         <v>45325</v>
       </c>
@@ -1639,7 +1678,7 @@
         <v>240150</v>
       </c>
     </row>
-    <row r="23" spans="2:7">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="10">
         <v>45325</v>
       </c>
@@ -1656,7 +1695,7 @@
         <v>251850</v>
       </c>
     </row>
-    <row r="24" spans="2:7">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="10">
         <v>45331</v>
       </c>
@@ -1673,7 +1712,7 @@
         <v>239750</v>
       </c>
     </row>
-    <row r="25" spans="2:7">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="10">
         <v>45331</v>
       </c>
@@ -1690,7 +1729,7 @@
         <v>261650</v>
       </c>
     </row>
-    <row r="26" spans="2:7">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="10">
         <v>45333</v>
       </c>
@@ -1706,6 +1745,47 @@
       <c r="F26" s="11">
         <v>280050</v>
       </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="10">
+        <v>45339</v>
+      </c>
+      <c r="C27" s="11">
+        <v>161380</v>
+      </c>
+      <c r="D27" s="11">
+        <v>257450</v>
+      </c>
+      <c r="E27" s="11">
+        <v>-7450</v>
+      </c>
+      <c r="F27" s="11">
+        <v>265300</v>
+      </c>
+      <c r="G27" s="14"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="10">
+        <v>45339</v>
+      </c>
+      <c r="C28" s="11">
+        <v>173380</v>
+      </c>
+      <c r="D28" s="11">
+        <v>272250</v>
+      </c>
+      <c r="E28" s="11">
+        <v>-15450</v>
+      </c>
+      <c r="F28" s="11">
+        <v>289300</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G29" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trendAnalysis.xlsx
+++ b/trendAnalysis.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6600" windowWidth="20640" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="6000" windowWidth="20640" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="2023TrendAnalysis" sheetId="15" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Outstanding Amount</t>
   </si>
@@ -36,17 +36,20 @@
   <si>
     <t>payable to ranjita 15450</t>
   </si>
+  <si>
+    <t>payable to ranjita 2000</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt numFmtId="44" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="[$-14009]dddd\,\ d\ mmmm\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,49 +220,46 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="44" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="43" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -289,18 +289,8 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -329,7 +319,6 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -338,12 +327,10 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -413,7 +400,7 @@
             <c:numRef>
               <c:f>'2023TrendAnalysis'!$C$3:$C$13</c:f>
               <c:numCache>
-                <c:formatCode>_("₹"* #,##0.00_);_("₹"* \(#,##0.00\);_("₹"* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_ "₹"\ * #,##0.00_ ;_ "₹"\ * \-#,##0.00_ ;_ "₹"\ * "-"??_ ;_ @_ </c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>35000</c:v>
@@ -451,8 +438,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-588A-4FD6-90A1-C2BC5C3DF530}"/>
             </c:ext>
@@ -527,7 +513,7 @@
             <c:numRef>
               <c:f>'2023TrendAnalysis'!$D$3:$D$13</c:f>
               <c:numCache>
-                <c:formatCode>_("₹"* #,##0.00_);_("₹"* \(#,##0.00\);_("₹"* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_ "₹"\ * #,##0.00_ ;_ "₹"\ * \-#,##0.00_ ;_ "₹"\ * "-"??_ ;_ @_ </c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -565,8 +551,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-588A-4FD6-90A1-C2BC5C3DF530}"/>
             </c:ext>
@@ -641,7 +626,7 @@
             <c:numRef>
               <c:f>'2023TrendAnalysis'!$E$3:$E$13</c:f>
               <c:numCache>
-                <c:formatCode>_("₹"* #,##0.00_);_("₹"* \(#,##0.00\);_("₹"* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_ "₹"\ * #,##0.00_ ;_ "₹"\ * \-#,##0.00_ ;_ "₹"\ * "-"??_ ;_ @_ </c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -676,8 +661,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-588A-4FD6-90A1-C2BC5C3DF530}"/>
             </c:ext>
@@ -752,7 +736,7 @@
             <c:numRef>
               <c:f>'2023TrendAnalysis'!$F$3:$F$13</c:f>
               <c:numCache>
-                <c:formatCode>_("₹"* #,##0.00_);_("₹"* \(#,##0.00\);_("₹"* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_ "₹"\ * #,##0.00_ ;_ "₹"\ * \-#,##0.00_ ;_ "₹"\ * "-"??_ ;_ @_ </c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -790,35 +774,23 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-588A-4FD6-90A1-C2BC5C3DF530}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="68160512"/>
-        <c:axId val="54264576"/>
+        <c:marker val="1"/>
+        <c:axId val="55575680"/>
+        <c:axId val="55577216"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="68160512"/>
+        <c:axId val="55575680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="[$-14009]dddd\,\ d\ mmmm\,\ yyyy;@" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -853,18 +825,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="54264576"/>
+        <c:crossAx val="55577216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="54264576"/>
+        <c:axId val="55577216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -880,9 +851,8 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="_(&quot;₹&quot;* #,##0.00_);_(&quot;₹&quot;* \(#,##0.00\);_(&quot;₹&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:numFmt formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -911,7 +881,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68160512"/>
+        <c:crossAx val="55575680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -926,7 +896,6 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -957,7 +926,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -986,7 +954,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1282,21 +1250,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.85546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="2" customWidth="1"/>
@@ -1309,8 +1277,8 @@
     <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" ht="20.100000000000001" customHeight="1"/>
+    <row r="2" spans="2:8" ht="34.5" customHeight="1" thickBot="1">
       <c r="B2" s="4"/>
       <c r="C2" s="4" t="s">
         <v>3</v>
@@ -1325,7 +1293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" ht="33.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
@@ -1345,7 +1313,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" ht="20.100000000000001" customHeight="1" thickTop="1">
       <c r="B4" s="8">
         <v>45221</v>
       </c>
@@ -1362,7 +1330,7 @@
         <v>40400</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B5" s="10">
         <v>45227</v>
       </c>
@@ -1379,7 +1347,7 @@
         <v>37100</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="12">
         <v>45235</v>
       </c>
@@ -1396,7 +1364,7 @@
         <v>37100</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="10">
         <v>45242</v>
       </c>
@@ -1414,7 +1382,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="12">
         <v>45249</v>
       </c>
@@ -1429,7 +1397,7 @@
         <v>46100</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B9" s="10">
         <v>45256</v>
       </c>
@@ -1446,7 +1414,7 @@
         <v>57200</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B10" s="10">
         <v>45270</v>
       </c>
@@ -1464,7 +1432,7 @@
         <v>49400</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="12">
         <v>45277</v>
       </c>
@@ -1481,7 +1449,7 @@
         <v>177050</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="10">
         <v>45284</v>
       </c>
@@ -1498,7 +1466,7 @@
         <v>216750</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="12">
         <v>45291</v>
       </c>
@@ -1515,7 +1483,7 @@
         <v>205750</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="10">
         <v>45298</v>
       </c>
@@ -1533,7 +1501,7 @@
         <v>211350</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="12">
         <v>45301</v>
       </c>
@@ -1550,7 +1518,7 @@
         <v>250950</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="10">
         <v>45305</v>
       </c>
@@ -1568,7 +1536,7 @@
       </c>
       <c r="H16" s="14"/>
     </row>
-    <row r="17" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B17" s="10">
         <v>45308</v>
       </c>
@@ -1586,7 +1554,7 @@
       </c>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B18" s="10">
         <v>45316</v>
       </c>
@@ -1604,7 +1572,7 @@
       </c>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B19" s="10">
         <v>45316</v>
       </c>
@@ -1622,7 +1590,7 @@
       </c>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="10">
         <v>45320</v>
       </c>
@@ -1643,7 +1611,7 @@
       </c>
       <c r="H20" s="14"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8">
       <c r="B21" s="10">
         <v>45321</v>
       </c>
@@ -1660,7 +1628,7 @@
         <v>249250</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8">
       <c r="B22" s="10">
         <v>45325</v>
       </c>
@@ -1678,7 +1646,7 @@
         <v>240150</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8">
       <c r="B23" s="10">
         <v>45325</v>
       </c>
@@ -1695,7 +1663,7 @@
         <v>251850</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8">
       <c r="B24" s="10">
         <v>45331</v>
       </c>
@@ -1712,7 +1680,7 @@
         <v>239750</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8">
       <c r="B25" s="10">
         <v>45331</v>
       </c>
@@ -1729,7 +1697,7 @@
         <v>261650</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8">
       <c r="B26" s="10">
         <v>45333</v>
       </c>
@@ -1746,7 +1714,7 @@
         <v>280050</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8">
       <c r="B27" s="10">
         <v>45339</v>
       </c>
@@ -1764,7 +1732,7 @@
       </c>
       <c r="G27" s="14"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8">
       <c r="B28" s="10">
         <v>45339</v>
       </c>
@@ -1772,20 +1740,41 @@
         <v>173380</v>
       </c>
       <c r="D28" s="11">
-        <v>272250</v>
+        <f>272250+1600</f>
+        <v>273850</v>
       </c>
       <c r="E28" s="11">
         <v>-15450</v>
       </c>
       <c r="F28" s="11">
-        <v>289300</v>
+        <v>287700</v>
       </c>
       <c r="G28" s="14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G29" s="15"/>
+    <row r="29" spans="2:8">
+      <c r="B29" s="10">
+        <v>45347</v>
+      </c>
+      <c r="C29" s="11">
+        <v>173380</v>
+      </c>
+      <c r="D29" s="11">
+        <v>273850</v>
+      </c>
+      <c r="E29" s="11">
+        <v>-2000</v>
+      </c>
+      <c r="F29" s="11">
+        <v>275850</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="G31" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trendAnalysis.xlsx
+++ b/trendAnalysis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Outstanding Amount</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>payable to ranjita 2000</t>
+  </si>
+  <si>
+    <t>payable to ranjita 3100</t>
   </si>
 </sst>
 </file>
@@ -781,11 +784,11 @@
           </c:extLst>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="55575680"/>
-        <c:axId val="55577216"/>
+        <c:axId val="57922304"/>
+        <c:axId val="57923840"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="55575680"/>
+        <c:axId val="57922304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -825,14 +828,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="55577216"/>
+        <c:crossAx val="57923840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="55577216"/>
+        <c:axId val="57923840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -881,7 +884,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="55575680"/>
+        <c:crossAx val="57922304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -954,7 +957,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000289" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000289" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1250,7 +1253,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1260,8 +1263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1773,8 +1776,45 @@
         <v>7</v>
       </c>
     </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="10">
+        <v>45353</v>
+      </c>
+      <c r="C30" s="11">
+        <v>173380</v>
+      </c>
+      <c r="D30" s="11">
+        <v>273850</v>
+      </c>
+      <c r="E30" s="11">
+        <v>11150</v>
+      </c>
+      <c r="F30" s="11">
+        <v>262700</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
     <row r="31" spans="2:8">
-      <c r="G31" s="14"/>
+      <c r="B31" s="10">
+        <v>45353</v>
+      </c>
+      <c r="C31" s="11">
+        <v>173380</v>
+      </c>
+      <c r="D31" s="11">
+        <v>279800</v>
+      </c>
+      <c r="E31" s="11">
+        <v>-3100</v>
+      </c>
+      <c r="F31" s="11">
+        <v>282900</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trendAnalysis.xlsx
+++ b/trendAnalysis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>Outstanding Amount</t>
   </si>
@@ -784,11 +784,11 @@
           </c:extLst>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="57922304"/>
-        <c:axId val="57923840"/>
+        <c:axId val="53503104"/>
+        <c:axId val="53504640"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="57922304"/>
+        <c:axId val="53503104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -828,14 +828,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57923840"/>
+        <c:crossAx val="53504640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="57923840"/>
+        <c:axId val="53504640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -884,7 +884,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57922304"/>
+        <c:crossAx val="53503104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -957,7 +957,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000289" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000289" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000003" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000003" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1253,7 +1253,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1261,10 +1261,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H31"/>
+  <dimension ref="B1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1816,6 +1816,47 @@
         <v>8</v>
       </c>
     </row>
+    <row r="32" spans="2:8">
+      <c r="B32" s="10">
+        <v>45359</v>
+      </c>
+      <c r="C32" s="11">
+        <v>173380</v>
+      </c>
+      <c r="D32" s="11">
+        <v>279800</v>
+      </c>
+      <c r="E32" s="11">
+        <v>11600</v>
+      </c>
+      <c r="F32" s="11">
+        <v>268200</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="10">
+        <v>45359</v>
+      </c>
+      <c r="C33" s="11">
+        <v>173380</v>
+      </c>
+      <c r="D33" s="11">
+        <v>286600</v>
+      </c>
+      <c r="E33" s="11">
+        <v>1600</v>
+      </c>
+      <c r="F33" s="11">
+        <v>285000</v>
+      </c>
+      <c r="G33" s="14"/>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="G34" s="14"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/trendAnalysis.xlsx
+++ b/trendAnalysis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Outstanding Amount</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>payable to ranjita 3100</t>
+  </si>
+  <si>
+    <t>14550 to be pay to trungpham by ranjita</t>
   </si>
 </sst>
 </file>
@@ -784,11 +787,11 @@
           </c:extLst>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="53503104"/>
-        <c:axId val="53504640"/>
+        <c:axId val="57019776"/>
+        <c:axId val="68555904"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="53503104"/>
+        <c:axId val="57019776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -828,14 +831,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="53504640"/>
+        <c:crossAx val="68555904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="53504640"/>
+        <c:axId val="68555904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -884,7 +887,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="53503104"/>
+        <c:crossAx val="57019776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -957,7 +960,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000003" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000003" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000311" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000311" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1253,7 +1256,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1261,10 +1264,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H34"/>
+  <dimension ref="B1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1855,7 +1858,43 @@
       <c r="G33" s="14"/>
     </row>
     <row r="34" spans="2:7">
+      <c r="B34" s="10">
+        <v>45373</v>
+      </c>
+      <c r="C34" s="11">
+        <v>173380</v>
+      </c>
+      <c r="D34" s="11">
+        <v>286600</v>
+      </c>
+      <c r="E34" s="11">
+        <f>32450+2100</f>
+        <v>34550</v>
+      </c>
+      <c r="F34" s="11">
+        <v>252050</v>
+      </c>
       <c r="G34" s="14"/>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="10">
+        <v>45373</v>
+      </c>
+      <c r="C35" s="11">
+        <v>173380</v>
+      </c>
+      <c r="D35" s="11">
+        <v>290600</v>
+      </c>
+      <c r="E35" s="11">
+        <v>14550</v>
+      </c>
+      <c r="F35" s="11">
+        <v>276050</v>
+      </c>
+      <c r="G35" s="14" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
